--- a/medicine/Mort/Cimetière_de_Montfort-l'Amaury/Cimetière_de_Montfort-l'Amaury.xlsx
+++ b/medicine/Mort/Cimetière_de_Montfort-l'Amaury/Cimetière_de_Montfort-l'Amaury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montfort-l%27Amaury</t>
+          <t>Cimetière_de_Montfort-l'Amaury</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Montfort-l'Amaury est le cimetière du village de Montfort-l'Amaury dans le département des Yvelines, en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Montfort-l'Amaury est le cimetière du village de Montfort-l'Amaury dans le département des Yvelines, en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montfort-l%27Amaury</t>
+          <t>Cimetière_de_Montfort-l'Amaury</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière se trouvant autour de l'église a été fermé au XVIe siècle et déplacé un peu plus au nord, entre la rue Saint-Nicolas, la rue Amaury et la ruelle des Fossés. Il a la particularité d'être entouré de galeries couvertes, qui servaient de charnier[2], où se trouvent plusieurs chapelles familiales aux saillies. Les galeries sud et nord datent du XVIe siècle, celle du côté est, du XVIIe siècle. Elles forment un cloître et sont classées au titre des monuments historiques par liste de 1875[1]. On remarque le long des enceintes des stèles du XIXe siècle, ainsi qu'un buste de Maurice Ravel[3] qui vécut à Montfort-l'Amaury et dont la maison est aujourd'hui un musée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière se trouvant autour de l'église a été fermé au XVIe siècle et déplacé un peu plus au nord, entre la rue Saint-Nicolas, la rue Amaury et la ruelle des Fossés. Il a la particularité d'être entouré de galeries couvertes, qui servaient de charnier, où se trouvent plusieurs chapelles familiales aux saillies. Les galeries sud et nord datent du XVIe siècle, celle du côté est, du XVIIe siècle. Elles forment un cloître et sont classées au titre des monuments historiques par liste de 1875. On remarque le long des enceintes des stèles du XIXe siècle, ainsi qu'un buste de Maurice Ravel qui vécut à Montfort-l'Amaury et dont la maison est aujourd'hui un musée.
 On entre au cimetière par une porte d'architecture gothique. Le cimetière à ciel ouvert est quant à lui étagé en terrasses, la plus haute étant la plus récente.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montfort-l%27Amaury</t>
+          <t>Cimetière_de_Montfort-l'Amaury</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Céleste Albaret, née Gineste (1891-1984), gouvernante de Marcel Proust. Elle repose aux côtés de son époux Odilon Albaret (1884-1960), chauffeur de l'écrivain, et de sa sœur Marie Gineste qui fut aussi domestique de l'écrivain.
 Charles Aznavour (1924-2018), auteur-compositeur-interprète, acteur et écrivain franco-arménien.
